--- a/realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>S.N</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Retailer Name</t>
   </si>
   <si>
-    <t>C17</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>fshgaf</t>
   </si>
   <si>
-    <t>C12</t>
-  </si>
-  <si>
     <t>gsb</t>
   </si>
   <si>
@@ -85,37 +79,37 @@
     <t>Mobile: 01725899584</t>
   </si>
   <si>
-    <t>06-09-2021</t>
-  </si>
-  <si>
-    <t>Mobile park</t>
-  </si>
-  <si>
-    <t>Sazu telecom</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
     <t>Tuhin mobile</t>
   </si>
   <si>
-    <t>Bismillah mobile</t>
-  </si>
-  <si>
-    <t>T M mobile</t>
-  </si>
-  <si>
-    <t>5i</t>
-  </si>
-  <si>
-    <t>Hello natore</t>
-  </si>
-  <si>
-    <t>C25s/128</t>
-  </si>
-  <si>
-    <t>8(5G)</t>
+    <t>Adil (Bhuiya mobile)</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C25s</t>
+  </si>
+  <si>
+    <t>C20A</t>
+  </si>
+  <si>
+    <t>Boisakhi tel</t>
+  </si>
+  <si>
+    <t>Zilani mobile</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>09.09.2021</t>
+  </si>
+  <si>
+    <t>Hirok(Dealer House)</t>
+  </si>
+  <si>
+    <t>Full Box</t>
   </si>
 </sst>
 </file>
@@ -570,7 +564,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +581,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -609,16 +603,16 @@
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="14"/>
     </row>
@@ -636,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
@@ -650,19 +644,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4">
-        <v>868529040680877</v>
+        <v>862539041409776</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -671,19 +665,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4">
-        <v>860692049492716</v>
+        <v>867623050416032</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -692,19 +686,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4">
-        <v>863909050739539</v>
+        <v>868790051421334</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -713,19 +707,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D8" s="4">
-        <v>868529040433152</v>
+        <v>869092054576951</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -734,19 +728,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4">
+        <v>868790051914858</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4">
-        <v>867623051382597</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -754,42 +748,22 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4">
-        <v>864997052664275</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4">
-        <v>869701050342537</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,30 +940,30 @@
   <sheetData>
     <row r="5" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -563,8 +563,8 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>S.N</t>
   </si>
@@ -79,37 +79,40 @@
     <t>Mobile: 01725899584</t>
   </si>
   <si>
-    <t>Tuhin mobile</t>
-  </si>
-  <si>
-    <t>Adil (Bhuiya mobile)</t>
-  </si>
-  <si>
     <t>C11</t>
   </si>
   <si>
-    <t>C25s</t>
-  </si>
-  <si>
-    <t>C20A</t>
-  </si>
-  <si>
-    <t>Boisakhi tel</t>
-  </si>
-  <si>
-    <t>Zilani mobile</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>09.09.2021</t>
-  </si>
-  <si>
-    <t>Hirok(Dealer House)</t>
-  </si>
-  <si>
-    <t>Full Box</t>
+    <t>Galaxy Mobile</t>
+  </si>
+  <si>
+    <t>21.09.2021</t>
+  </si>
+  <si>
+    <t>SK Telecom</t>
+  </si>
+  <si>
+    <t>C25s/128</t>
+  </si>
+  <si>
+    <t>T.M Mobile</t>
+  </si>
+  <si>
+    <t>Mobile Park</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C25/64</t>
+  </si>
+  <si>
+    <t>Sohan Enterprise</t>
+  </si>
+  <si>
+    <t>C17(NW)</t>
+  </si>
+  <si>
+    <t>C20A(NW)</t>
   </si>
 </sst>
 </file>
@@ -563,8 +566,8 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,16 +650,16 @@
         <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4">
-        <v>862539041409776</v>
+        <v>868790051997531</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -665,19 +668,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4">
-        <v>867623050416032</v>
+        <v>869694050851930</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -689,16 +692,16 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4">
-        <v>868790051421334</v>
+        <v>862539043906290</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -710,16 +713,16 @@
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4">
-        <v>869092054576951</v>
+        <v>868529040680877</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -728,19 +731,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4">
-        <v>868790051914858</v>
+        <v>863909052608195</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -748,11 +751,21 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4">
+        <v>869694051420396</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>S.N</t>
   </si>
@@ -79,40 +79,40 @@
     <t>Mobile: 01725899584</t>
   </si>
   <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>Galaxy Mobile</t>
-  </si>
-  <si>
-    <t>21.09.2021</t>
-  </si>
-  <si>
-    <t>SK Telecom</t>
-  </si>
-  <si>
-    <t>C25s/128</t>
-  </si>
-  <si>
-    <t>T.M Mobile</t>
-  </si>
-  <si>
-    <t>Mobile Park</t>
-  </si>
-  <si>
     <t>C15</t>
   </si>
   <si>
-    <t>C25/64</t>
-  </si>
-  <si>
-    <t>Sohan Enterprise</t>
-  </si>
-  <si>
-    <t>C17(NW)</t>
-  </si>
-  <si>
-    <t>C20A(NW)</t>
+    <t>Narzo-30a</t>
+  </si>
+  <si>
+    <t>c25s-64</t>
+  </si>
+  <si>
+    <t>Mobile park</t>
+  </si>
+  <si>
+    <t>c21-64</t>
+  </si>
+  <si>
+    <t>Zilani mobile</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>Dighe Telecom</t>
+  </si>
+  <si>
+    <t>3rd Time</t>
+  </si>
+  <si>
+    <t>Dealer House</t>
+  </si>
+  <si>
+    <t>27.09.2021</t>
+  </si>
+  <si>
+    <t>Full Box</t>
   </si>
 </sst>
 </file>
@@ -150,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +169,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,6 +261,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -567,7 +576,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,41 +592,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -647,19 +656,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" s="4">
-        <v>868790051997531</v>
+        <v>863726050806997</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -668,19 +677,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4">
-        <v>869694050851930</v>
+        <v>863909053059695</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -689,19 +698,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4">
-        <v>862539043906290</v>
+        <v>867623051493154</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -710,19 +719,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4">
+        <v>869092050396636</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="4">
-        <v>868529040680877</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -731,41 +740,33 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="4">
-        <v>863909052608195</v>
+        <v>868529042681717</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4">
-        <v>869694051420396</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>S.N</t>
   </si>
@@ -79,40 +79,40 @@
     <t>Mobile: 01725899584</t>
   </si>
   <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>Narzo-30a</t>
-  </si>
-  <si>
-    <t>c25s-64</t>
-  </si>
-  <si>
-    <t>Mobile park</t>
-  </si>
-  <si>
-    <t>c21-64</t>
-  </si>
-  <si>
     <t>Zilani mobile</t>
   </si>
   <si>
     <t>C17</t>
   </si>
   <si>
-    <t>Dighe Telecom</t>
-  </si>
-  <si>
-    <t>3rd Time</t>
-  </si>
-  <si>
-    <t>Dealer House</t>
-  </si>
-  <si>
-    <t>27.09.2021</t>
-  </si>
-  <si>
     <t>Full Box</t>
+  </si>
+  <si>
+    <t>04.10.2021</t>
+  </si>
+  <si>
+    <t>Bhuiyan Mobile</t>
+  </si>
+  <si>
+    <t>Tuhin mobile</t>
+  </si>
+  <si>
+    <t>c21/32</t>
+  </si>
+  <si>
+    <t>T.M Mobile</t>
+  </si>
+  <si>
+    <t>Momtaj tel</t>
+  </si>
+  <si>
+    <t>C21/64</t>
+  </si>
+  <si>
+    <t>C25s/64</t>
+  </si>
+  <si>
+    <t>Molla electronics</t>
   </si>
 </sst>
 </file>
@@ -150,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,12 +169,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -240,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,9 +255,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,7 +567,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,41 +583,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -656,19 +647,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" s="4">
-        <v>863726050806997</v>
+        <v>869092051238076</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -677,19 +668,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4">
-        <v>863909053059695</v>
+        <v>867623051022870</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -698,19 +689,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4">
-        <v>867623051493154</v>
+        <v>869092051978010</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -722,16 +713,16 @@
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
-        <v>869092050396636</v>
+        <v>868529041973511</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -740,33 +731,41 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="4">
-        <v>868529042681717</v>
+        <v>864997051511055</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4">
+        <v>869092050118998</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>S.N</t>
   </si>
@@ -55,9 +55,6 @@
     <t>gsb</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>sfsdhgjk</t>
   </si>
   <si>
@@ -88,31 +85,31 @@
     <t>Full Box</t>
   </si>
   <si>
-    <t>04.10.2021</t>
-  </si>
-  <si>
-    <t>Bhuiyan Mobile</t>
-  </si>
-  <si>
-    <t>Tuhin mobile</t>
-  </si>
-  <si>
-    <t>c21/32</t>
-  </si>
-  <si>
-    <t>T.M Mobile</t>
-  </si>
-  <si>
-    <t>Momtaj tel</t>
-  </si>
-  <si>
     <t>C21/64</t>
   </si>
   <si>
-    <t>C25s/64</t>
-  </si>
-  <si>
-    <t>Molla electronics</t>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Bissojit</t>
+  </si>
+  <si>
+    <t>C21/32</t>
+  </si>
+  <si>
+    <t>ABC Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dighi telecom </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bina mobil</t>
   </si>
 </sst>
 </file>
@@ -567,7 +564,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +581,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -606,16 +603,16 @@
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="14"/>
     </row>
@@ -647,20 +644,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D5" s="4">
-        <v>869092051238076</v>
+        <v>868529042681717</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -668,20 +663,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4">
-        <v>867623051022870</v>
+        <v>864997050720798</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,20 +682,18 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4">
-        <v>869092051978010</v>
+        <v>868529042719590</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -710,20 +701,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4">
+        <v>869092051496450</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
-        <v>868529041973511</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -731,20 +720,18 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4">
-        <v>864997051511055</v>
+        <v>869092051496450</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,20 +739,18 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="4">
-        <v>869092050118998</v>
+        <v>863909051181632</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -963,15 +948,15 @@
     </row>
     <row r="13" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
         <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">

--- a/realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>S.N</t>
   </si>
@@ -46,24 +46,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>fzgxhjkjhdf</t>
-  </si>
-  <si>
-    <t>fshgaf</t>
-  </si>
-  <si>
-    <t>gsb</t>
-  </si>
-  <si>
-    <t>sfsdhgjk</t>
-  </si>
-  <si>
-    <t>asdn</t>
-  </si>
-  <si>
-    <t>hdnfds</t>
-  </si>
-  <si>
     <t>DOA+ Servicing Details</t>
   </si>
   <si>
@@ -76,40 +58,37 @@
     <t>Mobile: 01725899584</t>
   </si>
   <si>
-    <t>Zilani mobile</t>
-  </si>
-  <si>
     <t>C17</t>
   </si>
   <si>
-    <t>Full Box</t>
-  </si>
-  <si>
     <t>C21/64</t>
   </si>
   <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
-    <t>Bissojit</t>
-  </si>
-  <si>
-    <t>C21/32</t>
-  </si>
-  <si>
-    <t>ABC Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dighi telecom </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bina mobil</t>
+    <t>Tuhin Mobile Center</t>
+  </si>
+  <si>
+    <t>Rasel Telecom</t>
+  </si>
+  <si>
+    <t>Momtaj Telecom</t>
+  </si>
+  <si>
+    <t>C25s</t>
+  </si>
+  <si>
+    <t>20.10.2021</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>2nd Time sending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 time 20days stay in CC. 2nd Time same problem </t>
   </si>
 </sst>
 </file>
@@ -231,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,6 +232,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,7 +546,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,41 +562,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="14"/>
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -644,18 +626,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>868529041973511</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4">
-        <v>868529042681717</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -663,18 +647,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4">
-        <v>864997050720798</v>
+        <v>869092052372098</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,36 +668,30 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>867623051022870</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4">
-        <v>868529042719590</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4">
-        <v>869092051496450</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
@@ -719,18 +699,10 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4">
-        <v>869092051496450</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
@@ -738,18 +710,10 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4">
-        <v>863909051181632</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="5"/>
       <c r="G10" s="3"/>
     </row>
@@ -928,43 +892,352 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:I18"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
+    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>868529041973511</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4">
+        <v>869092052372098</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>867623051022870</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>